--- a/downloaded_files/MDES482_Lecture-35708.xlsx
+++ b/downloaded_files/MDES482_Lecture-35708.xlsx
@@ -39,7 +39,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -464,7 +464,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDES482_Lecture-35708.xlsx
+++ b/downloaded_files/MDES482_Lecture-35708.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد سعيد ابراهيم عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mostafa mohamed saied ibrahim omar</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -155,7 +164,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -455,7 +464,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -465,7 +474,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.380625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -564,16 +573,48 @@
       <x:c r="S2" s="2" t="s"/>
       <x:c r="T2" s="2" t="s"/>
     </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45933.4333722569</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-2 (MDES482) Location : ----- Time : Tuesday(8:9)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-2 (MDES482) Location : ----- Time : Tuesday(18:19)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-2 (MDES482) Location : ----- Time : Tuesday(8:9)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-2 (MDES482) Location : ----- Time : Tuesday(18:19)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-2 (MDES482) Location : ----- Time : Tuesday(8:9)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Graduation Project-2 (MDES482) Location : ----- Time : Tuesday(18:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MDES482_Lecture-35708.xlsx
+++ b/downloaded_files/MDES482_Lecture-35708.xlsx
@@ -39,7 +39,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1200276</x:t>
@@ -473,7 +473,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.940625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
